--- a/Excel/Day_4/Date-Time Functions.xlsx
+++ b/Excel/Day_4/Date-Time Functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS_Professionals\Excel\Day_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4290550E-625F-4E1B-ACF7-282371E4A6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3F172E-48BE-446E-8007-60DA9AF63657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TODAY, NOW" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>Example</t>
   </si>
@@ -149,6 +149,15 @@
   </si>
   <si>
     <t>marks2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =DAYS(M5,N5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =Days*24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =hours*60</t>
   </si>
 </sst>
 </file>
@@ -442,62 +451,62 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1462,7 +1471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -1483,6 +1492,8 @@
     <col min="13" max="13" width="11.7265625" customWidth="1"/>
     <col min="14" max="14" width="26.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1498,24 +1509,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1524,96 +1535,107 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
       <c r="K4" s="7"/>
       <c r="M4" s="28">
-        <v>43374</v>
+        <f ca="1">TODAY()</f>
+        <v>45387</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
       <c r="M6" s="21" t="s">
         <v>4</v>
       </c>
       <c r="N6" s="5">
         <f ca="1">TODAY()</f>
-        <v>45382</v>
+        <v>45387</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
       <c r="M7" s="21"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
       <c r="M8" s="21"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
       <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
       <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
       <c r="M11" s="21" t="s">
         <v>5</v>
       </c>
       <c r="N11" s="24">
         <f ca="1">NOW()</f>
-        <v>45382.542282060182</v>
+        <v>45387.919659027779</v>
       </c>
       <c r="O11" s="23">
         <f ca="1">NOW()</f>
-        <v>45382.542282060182</v>
+        <v>45387.919659027779</v>
+      </c>
+      <c r="P11" s="23">
+        <f ca="1">NOW()</f>
+        <v>45387.919659027779</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>1</v>
+      </c>
+      <c r="R11" s="23">
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.6">
@@ -1627,87 +1649,87 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
       <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
       <c r="M15" s="21"/>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
       <c r="M16" s="21" t="s">
         <v>6</v>
       </c>
       <c r="N16" s="24"/>
       <c r="O16" s="31">
         <f ca="1">NOW()</f>
-        <v>45382.542282060182</v>
+        <v>45387.919659027779</v>
       </c>
     </row>
     <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
     </row>
     <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
     </row>
     <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
     </row>
     <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="50"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="C4:G11"/>
     <mergeCell ref="C14:G21"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1718,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1755,23 +1777,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="32"/>
+      <c r="L1" s="50"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1796,11 +1818,15 @@
       </c>
       <c r="M4" s="25">
         <f ca="1">NOW()</f>
-        <v>45382.542282060182</v>
+        <v>45387.919659027779</v>
       </c>
       <c r="N4" s="26">
         <f ca="1">DAY(M4)</f>
-        <v>31</v>
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <f ca="1">DAY(M4)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1819,11 +1845,11 @@
       </c>
       <c r="M5" s="25">
         <f ca="1">M4-5</f>
-        <v>45377.542282060182</v>
+        <v>45382.919659027779</v>
       </c>
       <c r="N5" s="26">
         <f ca="1">DAY(M5)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1853,11 +1879,15 @@
       </c>
       <c r="M8" s="25">
         <f ca="1">NOW()</f>
-        <v>45382.542282060182</v>
+        <v>45387.919659027779</v>
       </c>
       <c r="N8" s="26">
         <f ca="1">MONTH(M8)</f>
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <f ca="1">MONTH(M8)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1871,7 +1901,7 @@
       </c>
       <c r="M9" s="25">
         <f ca="1">M8-5</f>
-        <v>45377.542282060182</v>
+        <v>45382.919659027779</v>
       </c>
       <c r="N9" s="26">
         <f ca="1">MONTH(M9)</f>
@@ -1905,9 +1935,13 @@
       </c>
       <c r="M12" s="25">
         <f ca="1">NOW()</f>
-        <v>45382.542282060182</v>
+        <v>45387.919659027779</v>
       </c>
       <c r="N12" s="26">
+        <f ca="1">YEAR(M12)</f>
+        <v>2024</v>
+      </c>
+      <c r="O12">
         <f ca="1">YEAR(M12)</f>
         <v>2024</v>
       </c>
@@ -1923,7 +1957,7 @@
       </c>
       <c r="M13" s="25">
         <f ca="1">M12-5</f>
-        <v>45377.542282060182</v>
+        <v>45382.919659027779</v>
       </c>
       <c r="N13" s="26">
         <f ca="1">YEAR(M13)</f>
@@ -1950,61 +1984,61 @@
       <c r="C17" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="6"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="6"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2027,7 +2061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
@@ -2061,23 +2095,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2123,15 +2157,18 @@
       </c>
       <c r="M5" s="29">
         <f ca="1">TODAY()</f>
-        <v>45382</v>
+        <v>45387</v>
       </c>
       <c r="N5" s="29">
         <f ca="1">M5-11</f>
-        <v>45371</v>
+        <v>45376</v>
       </c>
       <c r="O5" s="22">
         <f ca="1">_xlfn.DAYS(M5,N5)</f>
         <v>11</v>
+      </c>
+      <c r="P5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2203,11 +2240,11 @@
       </c>
       <c r="M11" s="29">
         <f ca="1">TODAY()</f>
-        <v>45382</v>
+        <v>45387</v>
       </c>
       <c r="N11" s="29">
         <f ca="1">M11-11</f>
-        <v>45371</v>
+        <v>45376</v>
       </c>
       <c r="O11" s="22">
         <f ca="1">M11-N11</f>
@@ -2220,6 +2257,10 @@
       <c r="Q11" s="26">
         <f ca="1">P11*60</f>
         <v>15840</v>
+      </c>
+      <c r="R11">
+        <f ca="1">M11-N11</f>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -2242,39 +2283,49 @@
         <f>P12*60</f>
         <v>633600</v>
       </c>
+      <c r="R12">
+        <f>P12*60</f>
+        <v>633600</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
+      <c r="P13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
       <c r="M16" s="20" t="s">
         <v>15</v>
       </c>
@@ -2286,21 +2337,21 @@
       </c>
     </row>
     <row r="17" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
       <c r="L17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="M17" s="29">
         <f ca="1">TODAY()</f>
-        <v>45382</v>
+        <v>45387</v>
       </c>
       <c r="N17" s="29">
         <f ca="1">M17-11</f>
-        <v>45371</v>
+        <v>45376</v>
       </c>
       <c r="O17" s="22">
         <f ca="1">DATEDIF(N17,M17,"d")</f>
@@ -2308,11 +2359,11 @@
       </c>
     </row>
     <row r="18" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
       <c r="M18" s="29">
         <v>43403</v>
       </c>
@@ -2325,11 +2376,11 @@
       </c>
     </row>
     <row r="19" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
       <c r="M19" s="29">
         <v>43382</v>
       </c>
@@ -2342,11 +2393,11 @@
       </c>
     </row>
     <row r="20" spans="3:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="9">
